--- a/Métricas.xlsx
+++ b/Métricas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\green\OneDrive\Documentos\GitHub\ProyectoEquipo4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B83A33-2914-4164-BC41-E56D44D7393B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FE156A-5925-4970-A36B-D8228BE9E5EC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,9 +56,6 @@
     <t xml:space="preserve">Requerimiento </t>
   </si>
   <si>
-    <t>El sistema deberá dar acceso a un registro de usuario.</t>
-  </si>
-  <si>
     <t>Actividades</t>
   </si>
   <si>
@@ -96,6 +93,9 @@
   </si>
   <si>
     <t>Completo</t>
+  </si>
+  <si>
+    <t>El sistema deberá dar acceso a un registro a los dos tipos de usuarios</t>
   </si>
 </sst>
 </file>
@@ -391,13 +391,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -620,7 +620,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -640,7 +640,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>0</v>
@@ -654,137 +654,137 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B2" s="33" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="27" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37"/>
       <c r="B3" s="34"/>
       <c r="C3" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="28" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="37"/>
       <c r="B4" s="34"/>
       <c r="C4" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
       <c r="B5" s="34"/>
       <c r="C5" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="29" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="37"/>
       <c r="B6" s="34"/>
       <c r="C6" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="30" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="37"/>
       <c r="B7" s="34"/>
       <c r="C7" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="37"/>
       <c r="B8" s="34"/>
       <c r="C8" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37"/>
       <c r="B9" s="34"/>
       <c r="C9" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="31" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="24"/>
       <c r="F9" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38"/>
       <c r="B10" s="35"/>
       <c r="C10" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="32" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="25"/>
       <c r="F10" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -796,7 +796,7 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>

--- a/Métricas.xlsx
+++ b/Métricas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\green\OneDrive\Documentos\GitHub\ProyectoEquipo4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FE156A-5925-4970-A36B-D8228BE9E5EC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D50E02-409F-4FA1-9DB0-AF7824C1E266}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,6 +381,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -389,15 +398,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -620,7 +620,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -653,10 +653,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="36" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="16" t="s">
@@ -671,8 +671,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="34"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="19" t="s">
         <v>14</v>
       </c>
@@ -685,8 +685,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="34"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="17" t="s">
         <v>15</v>
       </c>
@@ -699,8 +699,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="34"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="18" t="s">
         <v>13</v>
       </c>
@@ -713,8 +713,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="34"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="21" t="s">
         <v>16</v>
       </c>
@@ -727,8 +727,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="34"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="22" t="s">
         <v>17</v>
       </c>
@@ -741,8 +741,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="34"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="20" t="s">
         <v>18</v>
       </c>
@@ -755,8 +755,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="34"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="23" t="s">
         <v>20</v>
       </c>
@@ -769,8 +769,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
-      <c r="B10" s="35"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="26" t="s">
         <v>19</v>
       </c>
